--- a/data/output/Pedido_Semana_08_09022026_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_tierras_aridos.xlsx
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>139.15</v>
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>359.8</v>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>68.59999999999999</v>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>63.2</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>13.6</v>
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>121.5</v>
@@ -1543,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>111.1</v>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>28.5</v>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>6.2</v>
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>90.3</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>15.05</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>7.68</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>9.35</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>4.68</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>56.13</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>23.78</v>
@@ -3001,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5.5</v>
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>7.55</v>
@@ -3568,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>177</v>
@@ -3730,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>77.18000000000001</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>10.22</v>
@@ -3892,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>72.09999999999999</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>8.9</v>
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>51.28</v>
@@ -4216,7 +4216,7 @@
         <v>8</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>142.35</v>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="C63" s="8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_tierras_aridos.xlsx
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="3" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="3" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>6</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R16" s="3" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R20" s="3" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R22" s="3" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R25" s="3" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="3" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="3" t="n">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="3" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R30" s="3" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>6</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="3" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R32" s="3" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="3" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="3" t="n">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37" s="3" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>26</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R38" s="3" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R39" s="3" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>28</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R40" s="3" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>10</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R42" s="3" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R44" s="3" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R45" s="3" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>34</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R46" s="3" t="n">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" s="3" t="n">
         <v>0</v>
